--- a/data/panelapp/au/Dystonia_Superpanel.xlsx
+++ b/data/panelapp/au/Dystonia_Superpanel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E207"/>
+  <dimension ref="A1:F209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>panel</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>time_taken</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -479,6 +484,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727148</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -504,6 +514,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727159</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -529,6 +544,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727162</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -554,6 +574,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727165</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -579,6 +604,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727168</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -604,6 +634,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727170</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -629,6 +664,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727173</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -654,6 +694,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727175</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -679,6 +724,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727178</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -704,6 +754,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727181</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -729,6 +784,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727183</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -754,6 +814,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727186</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -779,6 +844,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727188</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -804,6 +874,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727191</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -829,6 +904,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727193</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -854,6 +934,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727196</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -879,6 +964,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727199</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -904,6 +994,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727201</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -929,6 +1024,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727204</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -954,6 +1054,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727207</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -979,6 +1084,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727209</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1004,6 +1114,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727212</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1029,6 +1144,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727215</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1054,6 +1174,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727217</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1079,6 +1204,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727221</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1104,6 +1234,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727223</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1129,6 +1264,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727226</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1154,6 +1294,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727229</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1179,6 +1324,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727231</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1204,6 +1354,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727235</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1229,6 +1384,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727237</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1254,6 +1414,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727240</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1279,6 +1444,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727243</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1304,6 +1474,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727245</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1329,6 +1504,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727248</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1354,6 +1534,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727250</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1379,6 +1564,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727253</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1404,6 +1594,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727255</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1429,6 +1624,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727258</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1454,6 +1654,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727260</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1479,6 +1684,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727263</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1504,6 +1714,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727266</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1529,6 +1744,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727268</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1554,6 +1774,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727271</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1579,6 +1804,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727273</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1604,6 +1834,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727276</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1629,6 +1864,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727278</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1654,6 +1894,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727281</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1679,6 +1924,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727283</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1704,6 +1954,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727286</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1729,6 +1984,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727288</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1754,6 +2014,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727291</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1779,6 +2044,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727294</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1804,6 +2074,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727296</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1829,6 +2104,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727299</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -1854,6 +2134,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727301</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -1879,6 +2164,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727304</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -1904,6 +2194,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727307</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -1929,6 +2224,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727309</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -1954,6 +2254,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727312</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -1979,6 +2284,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727314</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2004,6 +2314,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727317</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2029,6 +2344,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727319</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2054,6 +2374,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727322</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2079,6 +2404,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727326</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2104,6 +2434,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727329</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2129,6 +2464,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727331</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2154,6 +2494,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727334</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2179,6 +2524,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727336</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2204,6 +2554,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727339</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2229,6 +2584,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727341</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2254,6 +2614,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727344</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2279,6 +2644,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727346</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2304,6 +2674,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727349</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2329,6 +2704,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727351</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2354,6 +2734,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727354</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2379,6 +2764,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727358</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2404,6 +2794,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727361</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2429,6 +2824,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727364</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2454,6 +2854,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727366</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2479,6 +2884,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727369</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2504,6 +2914,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727371</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2529,6 +2944,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727374</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2554,6 +2974,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727376</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2579,6 +3004,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727379</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2604,6 +3034,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727381</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2629,6 +3064,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727384</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2654,6 +3094,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727386</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2679,6 +3124,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727389</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2704,6 +3154,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727391</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -2729,6 +3184,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727394</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -2754,6 +3214,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727396</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -2779,6 +3244,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727400</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -2804,6 +3274,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727403</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -2829,6 +3304,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727405</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -2854,6 +3334,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727408</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -2879,6 +3364,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727410</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -2904,6 +3394,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727413</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -2929,6 +3424,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727415</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -2954,6 +3454,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727418</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -2979,6 +3484,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727420</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3004,6 +3514,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727423</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3029,6 +3544,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727426</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3054,6 +3574,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727428</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3079,6 +3604,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727431</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3104,6 +3634,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727433</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3129,6 +3664,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727436</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3154,6 +3694,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727438</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -3179,6 +3724,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727443</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -3204,6 +3754,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727446</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -3229,6 +3784,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727448</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -3254,6 +3814,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727451</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -3279,6 +3844,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727453</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -3304,6 +3874,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727456</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -3329,6 +3904,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727459</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -3354,6 +3934,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727461</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -3379,6 +3964,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727464</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -3404,6 +3994,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727466</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -3429,6 +4024,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727469</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -3454,6 +4054,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727471</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -3479,6 +4084,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727474</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -3504,6 +4114,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727476</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -3529,6 +4144,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727479</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -3554,6 +4174,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727481</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -3579,6 +4204,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727484</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -3604,6 +4234,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727486</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -3629,6 +4264,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727489</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -3654,6 +4294,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727492</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -3679,6 +4324,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727496</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -3704,6 +4354,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727499</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -3729,6 +4384,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727501</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -3754,6 +4414,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727504</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -3779,6 +4444,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727506</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -3804,6 +4474,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727509</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -3829,6 +4504,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727512</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -3854,6 +4534,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727515</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -3879,6 +4564,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727517</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -3904,6 +4594,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727520</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -3929,6 +4624,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727522</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -3954,6 +4654,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727525</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -3979,6 +4684,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727528</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -4004,6 +4714,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727530</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -4029,6 +4744,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727533</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -4054,6 +4774,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727535</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -4079,6 +4804,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727538</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -4104,6 +4834,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727540</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -4129,6 +4864,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727542</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -4154,6 +4894,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727545</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -4179,6 +4924,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727548</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -4204,6 +4954,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727551</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -4229,6 +4984,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727553</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -4254,6 +5014,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727556</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -4279,6 +5044,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727558</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -4304,6 +5074,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727561</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -4329,6 +5104,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727563</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -4354,6 +5134,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727566</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -4379,6 +5164,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727568</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -4404,6 +5194,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727571</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -4429,6 +5224,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727573</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -4454,6 +5254,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727576</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -4479,6 +5284,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727578</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -4504,6 +5314,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727581</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -4529,6 +5344,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727583</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -4554,6 +5374,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727586</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -4579,6 +5404,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727588</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -4604,6 +5434,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727591</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -4629,6 +5464,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727593</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -4654,6 +5494,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727596</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -4679,6 +5524,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727598</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -4704,6 +5554,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727601</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -4729,6 +5584,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727603</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -4754,6 +5614,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727606</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -4779,6 +5644,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727610</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -4804,6 +5674,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727613</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -4829,6 +5704,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727615</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -4854,6 +5734,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727618</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -4879,6 +5764,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727620</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -4904,6 +5794,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727623</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -4929,6 +5824,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727625</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -4954,6 +5854,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727628</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -4979,6 +5884,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727630</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -5004,6 +5914,11 @@
           <t>Dystonia_Superpanel</t>
         </is>
       </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727633</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -5011,12 +5926,12 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>VAMP1</t>
+          <t>SHQ1</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>vesicle associated membrane protein 1</t>
+          <t>SHQ1, H/ACA ribonucleoprotein assembly factor</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -5027,6 +5942,11 @@
       <c r="E184" t="inlineStr">
         <is>
           <t>Dystonia_Superpanel</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727635</t>
         </is>
       </c>
     </row>
@@ -5036,22 +5956,27 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>AFG3L2</t>
+          <t>SHQ1</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>AFG3 like matrix AAA peptidase subunit 2</t>
+          <t>SHQ1, H/ACA ribonucleoprotein assembly factor</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
           <t>Dystonia_Superpanel</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727638</t>
         </is>
       </c>
     </row>
@@ -5061,22 +5986,27 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>CHMP2B</t>
+          <t>VAMP1</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>charged multivesicular body protein 2B</t>
+          <t>vesicle associated membrane protein 1</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
           <t>Dystonia_Superpanel</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727640</t>
         </is>
       </c>
     </row>
@@ -5086,12 +6016,12 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>DCTN1</t>
+          <t>AFG3L2</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>dynactin subunit 1</t>
+          <t>AFG3 like matrix AAA peptidase subunit 2</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -5102,6 +6032,11 @@
       <c r="E187" t="inlineStr">
         <is>
           <t>Dystonia_Superpanel</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727643</t>
         </is>
       </c>
     </row>
@@ -5111,12 +6046,12 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>EARS2</t>
+          <t>CHMP2B</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>glutamyl-tRNA synthetase 2, mitochondrial</t>
+          <t>charged multivesicular body protein 2B</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -5127,6 +6062,11 @@
       <c r="E188" t="inlineStr">
         <is>
           <t>Dystonia_Superpanel</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727645</t>
         </is>
       </c>
     </row>
@@ -5136,12 +6076,12 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>GAMT</t>
+          <t>DCTN1</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>guanidinoacetate N-methyltransferase</t>
+          <t>dynactin subunit 1</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -5152,6 +6092,11 @@
       <c r="E189" t="inlineStr">
         <is>
           <t>Dystonia_Superpanel</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727648</t>
         </is>
       </c>
     </row>
@@ -5161,12 +6106,12 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>KCNQ2</t>
+          <t>EARS2</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>potassium voltage-gated channel subfamily Q member 2</t>
+          <t>glutamyl-tRNA synthetase 2, mitochondrial</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -5177,6 +6122,11 @@
       <c r="E190" t="inlineStr">
         <is>
           <t>Dystonia_Superpanel</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727650</t>
         </is>
       </c>
     </row>
@@ -5186,12 +6136,12 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>MAT1A</t>
+          <t>GAMT</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>methionine adenosyltransferase 1A</t>
+          <t>guanidinoacetate N-methyltransferase</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -5202,6 +6152,11 @@
       <c r="E191" t="inlineStr">
         <is>
           <t>Dystonia_Superpanel</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727653</t>
         </is>
       </c>
     </row>
@@ -5211,12 +6166,12 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>MMADHC</t>
+          <t>KCNQ2</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>methylmalonic aciduria and homocystinuria, cblD type</t>
+          <t>potassium voltage-gated channel subfamily Q member 2</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -5227,6 +6182,11 @@
       <c r="E192" t="inlineStr">
         <is>
           <t>Dystonia_Superpanel</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727655</t>
         </is>
       </c>
     </row>
@@ -5236,12 +6196,12 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>MOGS</t>
+          <t>MAT1A</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>mannosyl-oligosaccharide glucosidase</t>
+          <t>methionine adenosyltransferase 1A</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -5252,6 +6212,11 @@
       <c r="E193" t="inlineStr">
         <is>
           <t>Dystonia_Superpanel</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727658</t>
         </is>
       </c>
     </row>
@@ -5261,12 +6226,12 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>MPV17</t>
+          <t>MMADHC</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>MPV17, mitochondrial inner membrane protein</t>
+          <t>methylmalonic aciduria and homocystinuria, cblD type</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -5277,6 +6242,11 @@
       <c r="E194" t="inlineStr">
         <is>
           <t>Dystonia_Superpanel</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727660</t>
         </is>
       </c>
     </row>
@@ -5286,12 +6256,12 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>PDGFRB</t>
+          <t>MOGS</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>platelet derived growth factor receptor beta</t>
+          <t>mannosyl-oligosaccharide glucosidase</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -5302,6 +6272,11 @@
       <c r="E195" t="inlineStr">
         <is>
           <t>Dystonia_Superpanel</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727663</t>
         </is>
       </c>
     </row>
@@ -5311,12 +6286,12 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>PLP1</t>
+          <t>MPV17</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>proteolipid protein 1</t>
+          <t>MPV17, mitochondrial inner membrane protein</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -5327,6 +6302,11 @@
       <c r="E196" t="inlineStr">
         <is>
           <t>Dystonia_Superpanel</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727665</t>
         </is>
       </c>
     </row>
@@ -5336,12 +6316,12 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>PODXL</t>
+          <t>PDGFRB</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>podocalyxin like</t>
+          <t>platelet derived growth factor receptor beta</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -5352,6 +6332,11 @@
       <c r="E197" t="inlineStr">
         <is>
           <t>Dystonia_Superpanel</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727668</t>
         </is>
       </c>
     </row>
@@ -5361,12 +6346,12 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>RNASEH2A</t>
+          <t>PLP1</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>ribonuclease H2 subunit A</t>
+          <t>proteolipid protein 1</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -5377,6 +6362,11 @@
       <c r="E198" t="inlineStr">
         <is>
           <t>Dystonia_Superpanel</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727670</t>
         </is>
       </c>
     </row>
@@ -5386,12 +6376,12 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>SLC20A2</t>
+          <t>PODXL</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>solute carrier family 20 member 2</t>
+          <t>podocalyxin like</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -5402,6 +6392,11 @@
       <c r="E199" t="inlineStr">
         <is>
           <t>Dystonia_Superpanel</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727673</t>
         </is>
       </c>
     </row>
@@ -5411,12 +6406,12 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>TOR1AIP1</t>
+          <t>RNASEH2A</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>torsin 1A interacting protein 1</t>
+          <t>ribonuclease H2 subunit A</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -5427,6 +6422,11 @@
       <c r="E200" t="inlineStr">
         <is>
           <t>Dystonia_Superpanel</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727675</t>
         </is>
       </c>
     </row>
@@ -5436,12 +6436,12 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>TSPOAP1</t>
+          <t>SLC20A2</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>TSPO associated protein 1</t>
+          <t>solute carrier family 20 member 2</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -5452,6 +6452,11 @@
       <c r="E201" t="inlineStr">
         <is>
           <t>Dystonia_Superpanel</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727678</t>
         </is>
       </c>
     </row>
@@ -5461,12 +6466,12 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>UBR4</t>
+          <t>TOR1AIP1</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>ubiquitin protein ligase E3 component n-recognin 4</t>
+          <t>torsin 1A interacting protein 1</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -5477,6 +6482,11 @@
       <c r="E202" t="inlineStr">
         <is>
           <t>Dystonia_Superpanel</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727681</t>
         </is>
       </c>
     </row>
@@ -5486,12 +6496,12 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>UNC80</t>
+          <t>TSPOAP1</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>unc-80 homolog, NALCN channel complex subunit</t>
+          <t>TSPO associated protein 1</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -5502,6 +6512,11 @@
       <c r="E203" t="inlineStr">
         <is>
           <t>Dystonia_Superpanel</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727683</t>
         </is>
       </c>
     </row>
@@ -5511,12 +6526,12 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>VPS11</t>
+          <t>UBR4</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>VPS11, CORVET/HOPS core subunit</t>
+          <t>ubiquitin protein ligase E3 component n-recognin 4</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -5527,6 +6542,11 @@
       <c r="E204" t="inlineStr">
         <is>
           <t>Dystonia_Superpanel</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727686</t>
         </is>
       </c>
     </row>
@@ -5536,12 +6556,12 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>VPS37A</t>
+          <t>UNC80</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>VPS37A, ESCRT-I subunit</t>
+          <t>unc-80 homolog, NALCN channel complex subunit</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -5552,6 +6572,11 @@
       <c r="E205" t="inlineStr">
         <is>
           <t>Dystonia_Superpanel</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727688</t>
         </is>
       </c>
     </row>
@@ -5561,22 +6586,27 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>C9orf72</t>
+          <t>VPS11</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>chromosome 9 open reading frame 72</t>
+          <t>VPS11, CORVET/HOPS core subunit</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
           <t>Dystonia_Superpanel</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727691</t>
         </is>
       </c>
     </row>
@@ -5586,22 +6616,87 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
+          <t>VPS37A</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>VPS37A, ESCRT-I subunit</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>Dystonia_Superpanel</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727693</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>C9orf72</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>chromosome 9 open reading frame 72</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>Dystonia_Superpanel</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727695</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
           <t>TAF1</t>
         </is>
       </c>
-      <c r="C207" t="inlineStr">
+      <c r="C209" t="inlineStr">
         <is>
           <t>TATA-box binding protein associated factor 1</t>
         </is>
       </c>
-      <c r="D207" t="inlineStr">
+      <c r="D209" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E207" t="inlineStr">
-        <is>
-          <t>Dystonia_Superpanel</t>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>Dystonia_Superpanel</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:48.727698</t>
         </is>
       </c>
     </row>

--- a/data/panelapp/au/Dystonia_Superpanel.xlsx
+++ b/data/panelapp/au/Dystonia_Superpanel.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="metadata" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -486,7 +487,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727148</t>
+          <t>2021-10-05 14:33:46.903382</t>
         </is>
       </c>
     </row>
@@ -516,7 +517,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727159</t>
+          <t>2021-10-05 14:33:46.903393</t>
         </is>
       </c>
     </row>
@@ -546,7 +547,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727162</t>
+          <t>2021-10-05 14:33:46.903396</t>
         </is>
       </c>
     </row>
@@ -576,7 +577,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727165</t>
+          <t>2021-10-05 14:33:46.903399</t>
         </is>
       </c>
     </row>
@@ -606,7 +607,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727168</t>
+          <t>2021-10-05 14:33:46.903402</t>
         </is>
       </c>
     </row>
@@ -636,7 +637,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727170</t>
+          <t>2021-10-05 14:33:46.903406</t>
         </is>
       </c>
     </row>
@@ -666,7 +667,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727173</t>
+          <t>2021-10-05 14:33:46.903408</t>
         </is>
       </c>
     </row>
@@ -696,7 +697,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727175</t>
+          <t>2021-10-05 14:33:46.903411</t>
         </is>
       </c>
     </row>
@@ -726,7 +727,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727178</t>
+          <t>2021-10-05 14:33:46.903414</t>
         </is>
       </c>
     </row>
@@ -756,7 +757,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727181</t>
+          <t>2021-10-05 14:33:46.903417</t>
         </is>
       </c>
     </row>
@@ -786,7 +787,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727183</t>
+          <t>2021-10-05 14:33:46.903420</t>
         </is>
       </c>
     </row>
@@ -816,7 +817,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727186</t>
+          <t>2021-10-05 14:33:46.903424</t>
         </is>
       </c>
     </row>
@@ -846,7 +847,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727188</t>
+          <t>2021-10-05 14:33:46.903427</t>
         </is>
       </c>
     </row>
@@ -876,7 +877,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727191</t>
+          <t>2021-10-05 14:33:46.903429</t>
         </is>
       </c>
     </row>
@@ -906,7 +907,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727193</t>
+          <t>2021-10-05 14:33:46.903432</t>
         </is>
       </c>
     </row>
@@ -936,7 +937,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727196</t>
+          <t>2021-10-05 14:33:46.903435</t>
         </is>
       </c>
     </row>
@@ -966,7 +967,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727199</t>
+          <t>2021-10-05 14:33:46.903439</t>
         </is>
       </c>
     </row>
@@ -996,7 +997,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727201</t>
+          <t>2021-10-05 14:33:46.903442</t>
         </is>
       </c>
     </row>
@@ -1026,7 +1027,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727204</t>
+          <t>2021-10-05 14:33:46.903444</t>
         </is>
       </c>
     </row>
@@ -1056,7 +1057,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727207</t>
+          <t>2021-10-05 14:33:46.903447</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1087,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727209</t>
+          <t>2021-10-05 14:33:46.903450</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1117,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727212</t>
+          <t>2021-10-05 14:33:46.903453</t>
         </is>
       </c>
     </row>
@@ -1146,7 +1147,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727215</t>
+          <t>2021-10-05 14:33:46.903456</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1177,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727217</t>
+          <t>2021-10-05 14:33:46.903459</t>
         </is>
       </c>
     </row>
@@ -1206,7 +1207,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727221</t>
+          <t>2021-10-05 14:33:46.903462</t>
         </is>
       </c>
     </row>
@@ -1236,7 +1237,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727223</t>
+          <t>2021-10-05 14:33:46.903465</t>
         </is>
       </c>
     </row>
@@ -1266,7 +1267,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727226</t>
+          <t>2021-10-05 14:33:46.903468</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1297,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727229</t>
+          <t>2021-10-05 14:33:46.903471</t>
         </is>
       </c>
     </row>
@@ -1326,7 +1327,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727231</t>
+          <t>2021-10-05 14:33:46.903474</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1357,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727235</t>
+          <t>2021-10-05 14:33:46.903476</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1387,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727237</t>
+          <t>2021-10-05 14:33:46.903479</t>
         </is>
       </c>
     </row>
@@ -1416,7 +1417,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727240</t>
+          <t>2021-10-05 14:33:46.903482</t>
         </is>
       </c>
     </row>
@@ -1446,7 +1447,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727243</t>
+          <t>2021-10-05 14:33:46.903485</t>
         </is>
       </c>
     </row>
@@ -1476,7 +1477,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727245</t>
+          <t>2021-10-05 14:33:46.903488</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1507,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727248</t>
+          <t>2021-10-05 14:33:46.903491</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1537,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727250</t>
+          <t>2021-10-05 14:33:46.903494</t>
         </is>
       </c>
     </row>
@@ -1566,7 +1567,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727253</t>
+          <t>2021-10-05 14:33:46.903497</t>
         </is>
       </c>
     </row>
@@ -1596,7 +1597,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727255</t>
+          <t>2021-10-05 14:33:46.903500</t>
         </is>
       </c>
     </row>
@@ -1626,7 +1627,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727258</t>
+          <t>2021-10-05 14:33:46.903502</t>
         </is>
       </c>
     </row>
@@ -1656,7 +1657,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727260</t>
+          <t>2021-10-05 14:33:46.903505</t>
         </is>
       </c>
     </row>
@@ -1686,7 +1687,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727263</t>
+          <t>2021-10-05 14:33:46.903509</t>
         </is>
       </c>
     </row>
@@ -1716,7 +1717,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727266</t>
+          <t>2021-10-05 14:33:46.903512</t>
         </is>
       </c>
     </row>
@@ -1746,7 +1747,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727268</t>
+          <t>2021-10-05 14:33:46.903514</t>
         </is>
       </c>
     </row>
@@ -1776,7 +1777,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727271</t>
+          <t>2021-10-05 14:33:46.903518</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1807,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727273</t>
+          <t>2021-10-05 14:33:46.903521</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1837,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727276</t>
+          <t>2021-10-05 14:33:46.903523</t>
         </is>
       </c>
     </row>
@@ -1866,7 +1867,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727278</t>
+          <t>2021-10-05 14:33:46.903526</t>
         </is>
       </c>
     </row>
@@ -1896,7 +1897,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727281</t>
+          <t>2021-10-05 14:33:46.903529</t>
         </is>
       </c>
     </row>
@@ -1926,7 +1927,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727283</t>
+          <t>2021-10-05 14:33:46.903532</t>
         </is>
       </c>
     </row>
@@ -1956,7 +1957,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727286</t>
+          <t>2021-10-05 14:33:46.903535</t>
         </is>
       </c>
     </row>
@@ -1986,7 +1987,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727288</t>
+          <t>2021-10-05 14:33:46.903538</t>
         </is>
       </c>
     </row>
@@ -2016,7 +2017,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727291</t>
+          <t>2021-10-05 14:33:46.903541</t>
         </is>
       </c>
     </row>
@@ -2046,7 +2047,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727294</t>
+          <t>2021-10-05 14:33:46.903544</t>
         </is>
       </c>
     </row>
@@ -2076,7 +2077,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727296</t>
+          <t>2021-10-05 14:33:46.903547</t>
         </is>
       </c>
     </row>
@@ -2106,7 +2107,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727299</t>
+          <t>2021-10-05 14:33:46.903550</t>
         </is>
       </c>
     </row>
@@ -2136,7 +2137,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727301</t>
+          <t>2021-10-05 14:33:46.903553</t>
         </is>
       </c>
     </row>
@@ -2166,7 +2167,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727304</t>
+          <t>2021-10-05 14:33:46.903556</t>
         </is>
       </c>
     </row>
@@ -2196,7 +2197,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727307</t>
+          <t>2021-10-05 14:33:46.903559</t>
         </is>
       </c>
     </row>
@@ -2226,7 +2227,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727309</t>
+          <t>2021-10-05 14:33:46.903562</t>
         </is>
       </c>
     </row>
@@ -2256,7 +2257,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727312</t>
+          <t>2021-10-05 14:33:46.903565</t>
         </is>
       </c>
     </row>
@@ -2286,7 +2287,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727314</t>
+          <t>2021-10-05 14:33:46.903568</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2317,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727317</t>
+          <t>2021-10-05 14:33:46.903571</t>
         </is>
       </c>
     </row>
@@ -2346,7 +2347,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727319</t>
+          <t>2021-10-05 14:33:46.903573</t>
         </is>
       </c>
     </row>
@@ -2376,7 +2377,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727322</t>
+          <t>2021-10-05 14:33:46.903576</t>
         </is>
       </c>
     </row>
@@ -2406,7 +2407,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727326</t>
+          <t>2021-10-05 14:33:46.903580</t>
         </is>
       </c>
     </row>
@@ -2436,7 +2437,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727329</t>
+          <t>2021-10-05 14:33:46.903584</t>
         </is>
       </c>
     </row>
@@ -2466,7 +2467,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727331</t>
+          <t>2021-10-05 14:33:46.903587</t>
         </is>
       </c>
     </row>
@@ -2496,7 +2497,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727334</t>
+          <t>2021-10-05 14:33:46.903590</t>
         </is>
       </c>
     </row>
@@ -2526,7 +2527,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727336</t>
+          <t>2021-10-05 14:33:46.903593</t>
         </is>
       </c>
     </row>
@@ -2556,7 +2557,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727339</t>
+          <t>2021-10-05 14:33:46.903596</t>
         </is>
       </c>
     </row>
@@ -2586,7 +2587,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727341</t>
+          <t>2021-10-05 14:33:46.903599</t>
         </is>
       </c>
     </row>
@@ -2616,7 +2617,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727344</t>
+          <t>2021-10-05 14:33:46.903601</t>
         </is>
       </c>
     </row>
@@ -2646,7 +2647,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727346</t>
+          <t>2021-10-05 14:33:46.903604</t>
         </is>
       </c>
     </row>
@@ -2676,7 +2677,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727349</t>
+          <t>2021-10-05 14:33:46.903607</t>
         </is>
       </c>
     </row>
@@ -2706,7 +2707,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727351</t>
+          <t>2021-10-05 14:33:46.903610</t>
         </is>
       </c>
     </row>
@@ -2736,7 +2737,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727354</t>
+          <t>2021-10-05 14:33:46.903613</t>
         </is>
       </c>
     </row>
@@ -2766,7 +2767,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727358</t>
+          <t>2021-10-05 14:33:46.903618</t>
         </is>
       </c>
     </row>
@@ -2796,7 +2797,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727361</t>
+          <t>2021-10-05 14:33:46.903622</t>
         </is>
       </c>
     </row>
@@ -2826,7 +2827,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727364</t>
+          <t>2021-10-05 14:33:46.903625</t>
         </is>
       </c>
     </row>
@@ -2856,7 +2857,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727366</t>
+          <t>2021-10-05 14:33:46.903628</t>
         </is>
       </c>
     </row>
@@ -2886,7 +2887,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727369</t>
+          <t>2021-10-05 14:33:46.903631</t>
         </is>
       </c>
     </row>
@@ -2916,7 +2917,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727371</t>
+          <t>2021-10-05 14:33:46.903633</t>
         </is>
       </c>
     </row>
@@ -2946,7 +2947,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727374</t>
+          <t>2021-10-05 14:33:46.903636</t>
         </is>
       </c>
     </row>
@@ -2976,7 +2977,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727376</t>
+          <t>2021-10-05 14:33:46.903639</t>
         </is>
       </c>
     </row>
@@ -3006,7 +3007,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727379</t>
+          <t>2021-10-05 14:33:46.903642</t>
         </is>
       </c>
     </row>
@@ -3036,7 +3037,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727381</t>
+          <t>2021-10-05 14:33:46.903645</t>
         </is>
       </c>
     </row>
@@ -3066,7 +3067,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727384</t>
+          <t>2021-10-05 14:33:46.903647</t>
         </is>
       </c>
     </row>
@@ -3096,7 +3097,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727386</t>
+          <t>2021-10-05 14:33:46.903650</t>
         </is>
       </c>
     </row>
@@ -3126,7 +3127,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727389</t>
+          <t>2021-10-05 14:33:46.903653</t>
         </is>
       </c>
     </row>
@@ -3156,7 +3157,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727391</t>
+          <t>2021-10-05 14:33:46.903656</t>
         </is>
       </c>
     </row>
@@ -3186,7 +3187,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727394</t>
+          <t>2021-10-05 14:33:46.903659</t>
         </is>
       </c>
     </row>
@@ -3216,7 +3217,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727396</t>
+          <t>2021-10-05 14:33:46.903662</t>
         </is>
       </c>
     </row>
@@ -3246,7 +3247,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727400</t>
+          <t>2021-10-05 14:33:46.903666</t>
         </is>
       </c>
     </row>
@@ -3276,7 +3277,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727403</t>
+          <t>2021-10-05 14:33:46.903669</t>
         </is>
       </c>
     </row>
@@ -3306,7 +3307,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727405</t>
+          <t>2021-10-05 14:33:46.903672</t>
         </is>
       </c>
     </row>
@@ -3336,7 +3337,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727408</t>
+          <t>2021-10-05 14:33:46.903675</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3367,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727410</t>
+          <t>2021-10-05 14:33:46.903678</t>
         </is>
       </c>
     </row>
@@ -3396,7 +3397,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727413</t>
+          <t>2021-10-05 14:33:46.903680</t>
         </is>
       </c>
     </row>
@@ -3426,7 +3427,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727415</t>
+          <t>2021-10-05 14:33:46.903683</t>
         </is>
       </c>
     </row>
@@ -3456,7 +3457,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727418</t>
+          <t>2021-10-05 14:33:46.903686</t>
         </is>
       </c>
     </row>
@@ -3486,7 +3487,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727420</t>
+          <t>2021-10-05 14:33:46.903689</t>
         </is>
       </c>
     </row>
@@ -3516,7 +3517,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727423</t>
+          <t>2021-10-05 14:33:46.903691</t>
         </is>
       </c>
     </row>
@@ -3546,7 +3547,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727426</t>
+          <t>2021-10-05 14:33:46.903694</t>
         </is>
       </c>
     </row>
@@ -3576,7 +3577,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727428</t>
+          <t>2021-10-05 14:33:46.903697</t>
         </is>
       </c>
     </row>
@@ -3606,7 +3607,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727431</t>
+          <t>2021-10-05 14:33:46.903700</t>
         </is>
       </c>
     </row>
@@ -3636,7 +3637,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727433</t>
+          <t>2021-10-05 14:33:46.903703</t>
         </is>
       </c>
     </row>
@@ -3666,7 +3667,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727436</t>
+          <t>2021-10-05 14:33:46.903706</t>
         </is>
       </c>
     </row>
@@ -3696,7 +3697,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727438</t>
+          <t>2021-10-05 14:33:46.903709</t>
         </is>
       </c>
     </row>
@@ -3726,7 +3727,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727443</t>
+          <t>2021-10-05 14:33:46.903713</t>
         </is>
       </c>
     </row>
@@ -3756,7 +3757,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727446</t>
+          <t>2021-10-05 14:33:46.903717</t>
         </is>
       </c>
     </row>
@@ -3786,7 +3787,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727448</t>
+          <t>2021-10-05 14:33:46.903720</t>
         </is>
       </c>
     </row>
@@ -3816,7 +3817,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727451</t>
+          <t>2021-10-05 14:33:46.903723</t>
         </is>
       </c>
     </row>
@@ -3846,7 +3847,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727453</t>
+          <t>2021-10-05 14:33:46.903725</t>
         </is>
       </c>
     </row>
@@ -3876,7 +3877,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727456</t>
+          <t>2021-10-05 14:33:46.903729</t>
         </is>
       </c>
     </row>
@@ -3906,7 +3907,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727459</t>
+          <t>2021-10-05 14:33:46.903731</t>
         </is>
       </c>
     </row>
@@ -3936,7 +3937,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727461</t>
+          <t>2021-10-05 14:33:46.903734</t>
         </is>
       </c>
     </row>
@@ -3966,7 +3967,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727464</t>
+          <t>2021-10-05 14:33:46.903737</t>
         </is>
       </c>
     </row>
@@ -3996,7 +3997,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727466</t>
+          <t>2021-10-05 14:33:46.903740</t>
         </is>
       </c>
     </row>
@@ -4026,7 +4027,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727469</t>
+          <t>2021-10-05 14:33:46.903742</t>
         </is>
       </c>
     </row>
@@ -4056,7 +4057,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727471</t>
+          <t>2021-10-05 14:33:46.903745</t>
         </is>
       </c>
     </row>
@@ -4086,7 +4087,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727474</t>
+          <t>2021-10-05 14:33:46.903748</t>
         </is>
       </c>
     </row>
@@ -4116,7 +4117,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727476</t>
+          <t>2021-10-05 14:33:46.903751</t>
         </is>
       </c>
     </row>
@@ -4146,7 +4147,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727479</t>
+          <t>2021-10-05 14:33:46.903754</t>
         </is>
       </c>
     </row>
@@ -4176,7 +4177,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727481</t>
+          <t>2021-10-05 14:33:46.903757</t>
         </is>
       </c>
     </row>
@@ -4206,7 +4207,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727484</t>
+          <t>2021-10-05 14:33:46.903760</t>
         </is>
       </c>
     </row>
@@ -4236,7 +4237,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727486</t>
+          <t>2021-10-05 14:33:46.903762</t>
         </is>
       </c>
     </row>
@@ -4266,7 +4267,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727489</t>
+          <t>2021-10-05 14:33:46.903765</t>
         </is>
       </c>
     </row>
@@ -4296,7 +4297,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727492</t>
+          <t>2021-10-05 14:33:46.903768</t>
         </is>
       </c>
     </row>
@@ -4326,7 +4327,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727496</t>
+          <t>2021-10-05 14:33:46.903772</t>
         </is>
       </c>
     </row>
@@ -4356,7 +4357,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727499</t>
+          <t>2021-10-05 14:33:46.903776</t>
         </is>
       </c>
     </row>
@@ -4386,7 +4387,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727501</t>
+          <t>2021-10-05 14:33:46.903779</t>
         </is>
       </c>
     </row>
@@ -4416,7 +4417,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727504</t>
+          <t>2021-10-05 14:33:46.903781</t>
         </is>
       </c>
     </row>
@@ -4446,7 +4447,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727506</t>
+          <t>2021-10-05 14:33:46.903784</t>
         </is>
       </c>
     </row>
@@ -4476,7 +4477,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727509</t>
+          <t>2021-10-05 14:33:46.903787</t>
         </is>
       </c>
     </row>
@@ -4506,7 +4507,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727512</t>
+          <t>2021-10-05 14:33:46.903790</t>
         </is>
       </c>
     </row>
@@ -4536,7 +4537,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727515</t>
+          <t>2021-10-05 14:33:46.903792</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4567,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727517</t>
+          <t>2021-10-05 14:33:46.903795</t>
         </is>
       </c>
     </row>
@@ -4596,7 +4597,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727520</t>
+          <t>2021-10-05 14:33:46.903798</t>
         </is>
       </c>
     </row>
@@ -4626,7 +4627,7 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727522</t>
+          <t>2021-10-05 14:33:46.903801</t>
         </is>
       </c>
     </row>
@@ -4656,7 +4657,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727525</t>
+          <t>2021-10-05 14:33:46.903804</t>
         </is>
       </c>
     </row>
@@ -4686,7 +4687,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727528</t>
+          <t>2021-10-05 14:33:46.903807</t>
         </is>
       </c>
     </row>
@@ -4716,7 +4717,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727530</t>
+          <t>2021-10-05 14:33:46.903810</t>
         </is>
       </c>
     </row>
@@ -4746,7 +4747,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727533</t>
+          <t>2021-10-05 14:33:46.903812</t>
         </is>
       </c>
     </row>
@@ -4776,7 +4777,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727535</t>
+          <t>2021-10-05 14:33:46.903868</t>
         </is>
       </c>
     </row>
@@ -4806,7 +4807,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727538</t>
+          <t>2021-10-05 14:33:46.903876</t>
         </is>
       </c>
     </row>
@@ -4836,7 +4837,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727540</t>
+          <t>2021-10-05 14:33:46.903879</t>
         </is>
       </c>
     </row>
@@ -4866,7 +4867,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727542</t>
+          <t>2021-10-05 14:33:46.903882</t>
         </is>
       </c>
     </row>
@@ -4896,7 +4897,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727545</t>
+          <t>2021-10-05 14:33:46.903885</t>
         </is>
       </c>
     </row>
@@ -4926,7 +4927,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727548</t>
+          <t>2021-10-05 14:33:46.903889</t>
         </is>
       </c>
     </row>
@@ -4956,7 +4957,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727551</t>
+          <t>2021-10-05 14:33:46.903893</t>
         </is>
       </c>
     </row>
@@ -4986,7 +4987,7 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727553</t>
+          <t>2021-10-05 14:33:46.903896</t>
         </is>
       </c>
     </row>
@@ -5016,7 +5017,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727556</t>
+          <t>2021-10-05 14:33:46.903899</t>
         </is>
       </c>
     </row>
@@ -5046,7 +5047,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727558</t>
+          <t>2021-10-05 14:33:46.903902</t>
         </is>
       </c>
     </row>
@@ -5076,7 +5077,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727561</t>
+          <t>2021-10-05 14:33:46.903905</t>
         </is>
       </c>
     </row>
@@ -5106,7 +5107,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727563</t>
+          <t>2021-10-05 14:33:46.903908</t>
         </is>
       </c>
     </row>
@@ -5136,7 +5137,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727566</t>
+          <t>2021-10-05 14:33:46.903911</t>
         </is>
       </c>
     </row>
@@ -5166,7 +5167,7 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727568</t>
+          <t>2021-10-05 14:33:46.903913</t>
         </is>
       </c>
     </row>
@@ -5196,7 +5197,7 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727571</t>
+          <t>2021-10-05 14:33:46.903916</t>
         </is>
       </c>
     </row>
@@ -5226,7 +5227,7 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727573</t>
+          <t>2021-10-05 14:33:46.903919</t>
         </is>
       </c>
     </row>
@@ -5256,7 +5257,7 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727576</t>
+          <t>2021-10-05 14:33:46.903922</t>
         </is>
       </c>
     </row>
@@ -5286,7 +5287,7 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727578</t>
+          <t>2021-10-05 14:33:46.903925</t>
         </is>
       </c>
     </row>
@@ -5316,7 +5317,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727581</t>
+          <t>2021-10-05 14:33:46.903928</t>
         </is>
       </c>
     </row>
@@ -5346,7 +5347,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727583</t>
+          <t>2021-10-05 14:33:46.903931</t>
         </is>
       </c>
     </row>
@@ -5376,7 +5377,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727586</t>
+          <t>2021-10-05 14:33:46.903934</t>
         </is>
       </c>
     </row>
@@ -5406,7 +5407,7 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727588</t>
+          <t>2021-10-05 14:33:46.903936</t>
         </is>
       </c>
     </row>
@@ -5436,7 +5437,7 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727591</t>
+          <t>2021-10-05 14:33:46.903940</t>
         </is>
       </c>
     </row>
@@ -5466,7 +5467,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727593</t>
+          <t>2021-10-05 14:33:46.903943</t>
         </is>
       </c>
     </row>
@@ -5496,7 +5497,7 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727596</t>
+          <t>2021-10-05 14:33:46.903945</t>
         </is>
       </c>
     </row>
@@ -5526,7 +5527,7 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727598</t>
+          <t>2021-10-05 14:33:46.903948</t>
         </is>
       </c>
     </row>
@@ -5556,7 +5557,7 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727601</t>
+          <t>2021-10-05 14:33:46.903972</t>
         </is>
       </c>
     </row>
@@ -5586,7 +5587,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727603</t>
+          <t>2021-10-05 14:33:46.903975</t>
         </is>
       </c>
     </row>
@@ -5616,7 +5617,7 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727606</t>
+          <t>2021-10-05 14:33:46.903978</t>
         </is>
       </c>
     </row>
@@ -5646,7 +5647,7 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727610</t>
+          <t>2021-10-05 14:33:46.903983</t>
         </is>
       </c>
     </row>
@@ -5676,7 +5677,7 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727613</t>
+          <t>2021-10-05 14:33:46.903987</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5707,7 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727615</t>
+          <t>2021-10-05 14:33:46.903990</t>
         </is>
       </c>
     </row>
@@ -5736,7 +5737,7 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727618</t>
+          <t>2021-10-05 14:33:46.903993</t>
         </is>
       </c>
     </row>
@@ -5766,7 +5767,7 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727620</t>
+          <t>2021-10-05 14:33:46.903996</t>
         </is>
       </c>
     </row>
@@ -5796,7 +5797,7 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727623</t>
+          <t>2021-10-05 14:33:46.903998</t>
         </is>
       </c>
     </row>
@@ -5826,7 +5827,7 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727625</t>
+          <t>2021-10-05 14:33:46.904001</t>
         </is>
       </c>
     </row>
@@ -5856,7 +5857,7 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727628</t>
+          <t>2021-10-05 14:33:46.904004</t>
         </is>
       </c>
     </row>
@@ -5886,7 +5887,7 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727630</t>
+          <t>2021-10-05 14:33:46.904007</t>
         </is>
       </c>
     </row>
@@ -5916,7 +5917,7 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727633</t>
+          <t>2021-10-05 14:33:46.904010</t>
         </is>
       </c>
     </row>
@@ -5946,7 +5947,7 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727635</t>
+          <t>2021-10-05 14:33:46.904013</t>
         </is>
       </c>
     </row>
@@ -5976,7 +5977,7 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727638</t>
+          <t>2021-10-05 14:33:46.904016</t>
         </is>
       </c>
     </row>
@@ -6006,7 +6007,7 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727640</t>
+          <t>2021-10-05 14:33:46.904018</t>
         </is>
       </c>
     </row>
@@ -6036,7 +6037,7 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727643</t>
+          <t>2021-10-05 14:33:46.904021</t>
         </is>
       </c>
     </row>
@@ -6066,7 +6067,7 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727645</t>
+          <t>2021-10-05 14:33:46.904024</t>
         </is>
       </c>
     </row>
@@ -6096,7 +6097,7 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727648</t>
+          <t>2021-10-05 14:33:46.904027</t>
         </is>
       </c>
     </row>
@@ -6126,7 +6127,7 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727650</t>
+          <t>2021-10-05 14:33:46.904030</t>
         </is>
       </c>
     </row>
@@ -6156,7 +6157,7 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727653</t>
+          <t>2021-10-05 14:33:46.904033</t>
         </is>
       </c>
     </row>
@@ -6186,7 +6187,7 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727655</t>
+          <t>2021-10-05 14:33:46.904036</t>
         </is>
       </c>
     </row>
@@ -6216,7 +6217,7 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727658</t>
+          <t>2021-10-05 14:33:46.904039</t>
         </is>
       </c>
     </row>
@@ -6246,7 +6247,7 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727660</t>
+          <t>2021-10-05 14:33:46.904042</t>
         </is>
       </c>
     </row>
@@ -6276,7 +6277,7 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727663</t>
+          <t>2021-10-05 14:33:46.904045</t>
         </is>
       </c>
     </row>
@@ -6306,7 +6307,7 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727665</t>
+          <t>2021-10-05 14:33:46.904047</t>
         </is>
       </c>
     </row>
@@ -6336,7 +6337,7 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727668</t>
+          <t>2021-10-05 14:33:46.904050</t>
         </is>
       </c>
     </row>
@@ -6366,7 +6367,7 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727670</t>
+          <t>2021-10-05 14:33:46.904053</t>
         </is>
       </c>
     </row>
@@ -6396,7 +6397,7 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727673</t>
+          <t>2021-10-05 14:33:46.904056</t>
         </is>
       </c>
     </row>
@@ -6426,7 +6427,7 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727675</t>
+          <t>2021-10-05 14:33:46.904059</t>
         </is>
       </c>
     </row>
@@ -6456,7 +6457,7 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727678</t>
+          <t>2021-10-05 14:33:46.904062</t>
         </is>
       </c>
     </row>
@@ -6486,7 +6487,7 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727681</t>
+          <t>2021-10-05 14:33:46.904065</t>
         </is>
       </c>
     </row>
@@ -6516,7 +6517,7 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727683</t>
+          <t>2021-10-05 14:33:46.904068</t>
         </is>
       </c>
     </row>
@@ -6546,7 +6547,7 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727686</t>
+          <t>2021-10-05 14:33:46.904071</t>
         </is>
       </c>
     </row>
@@ -6576,7 +6577,7 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727688</t>
+          <t>2021-10-05 14:33:46.904074</t>
         </is>
       </c>
     </row>
@@ -6606,7 +6607,7 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727691</t>
+          <t>2021-10-05 14:33:46.904077</t>
         </is>
       </c>
     </row>
@@ -6636,7 +6637,7 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727693</t>
+          <t>2021-10-05 14:33:46.904080</t>
         </is>
       </c>
     </row>
@@ -6666,7 +6667,7 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727695</t>
+          <t>2021-10-05 14:33:46.904083</t>
         </is>
       </c>
     </row>
@@ -6696,7 +6697,91 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:48.727698</t>
+          <t>2021-10-05 14:33:46.904086</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>data_name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>data_id</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>data_version</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>data_version_created</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>panel_query_time</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>panel_get_request</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Dystonia_Superpanel</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3123</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2021-10-04T04:24:54.148137Z</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2021-10-05 14:33:46.900024</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://panelapp.agha.umccr.org/api/v1/panels/3123/?format=json</t>
         </is>
       </c>
     </row>
